--- a/메모장/메소드정리.xlsx
+++ b/메모장/메소드정리.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="15075" windowHeight="6045"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="15075" windowHeight="6045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DIY" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>메서드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +46,38 @@
   </si>
   <si>
     <t>boolean equals(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static void isPrime (int given) {
+  int cnt = 0;
+  for (int i = 1; i &lt;= given; i++) {
+   if (given % i == 0) {cnt ++;}
+  }
+  if (cnt == 1) throw new ArithmeticException("1을 입력했습니다.");
+  if (cnt == 2) {System.out.println("소수 입니다.");}
+  else {System.out.println("소수가 아닙니다.");}
+ }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static void isGcd (int num1, int num2) {
+  if (num1 &lt; 0 || num2 &lt; 0) throw new ArithmeticException("예외 발생 : 최대공약수는 2개의 양의 정수가 필요합니다.");
+  if (num1 % num1 == 0 &amp;&amp; num2 % num1 == 0) {System.out.println("서로소가 아닙니다.");}
+  else {System.out.println("서로소 입니다.");}
+ }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수 (given)이 소수인지 아닌지 묻는 메서드
+#소수 #수학 #반복문 #조건문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 정수가 주어졌을 때 
+두 정수의 최대공약수가 1이면 서로소라고 출력하고, 
+서로소가 아니면 서로소가 아님 이라고 출력하는 메소드
+#최대공약수 #최대공배수 #서로소 #수학 #조건문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,12 +124,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -463,4 +505,320 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:E11"/>
+    <mergeCell ref="F2:L11"/>
+    <mergeCell ref="A12:E20"/>
+    <mergeCell ref="F12:L20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>